--- a/data/TopOnePercent/Nanjing Normal University.xlsx
+++ b/data/TopOnePercent/Nanjing Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1724.0</v>
+        <v>1684.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>31063.0</v>
+        <v>30375.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>18.02</v>
+        <v>18.04</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>633.0</v>
+        <v>629.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>12416.0</v>
+        <v>12769.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>19.61</v>
+        <v>20.3</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,13 +228,13 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>995.0</v>
+        <v>998.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>10482.0</v>
+        <v>10055.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>10.53</v>
+        <v>10.08</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>25.0</v>
@@ -250,16 +250,16 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>602.0</v>
+        <v>607.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>8139.0</v>
+        <v>7427.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>13.52</v>
+        <v>12.24</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
@@ -272,16 +272,16 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>764.0</v>
+        <v>775.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>6357.0</v>
+        <v>6498.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>8.32</v>
+        <v>8.38</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -294,13 +294,13 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>612.0</v>
+        <v>598.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>4969.0</v>
+        <v>4841.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>8.12</v>
+        <v>8.1</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>4.0</v>
@@ -312,70 +312,48 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MATHEMATICS</t>
+          <t>AGRICULTURAL SCIENCES</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>1243.0</v>
+        <v>396.0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>4944.0</v>
+        <v>4588.0</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>3.98</v>
+        <v>11.59</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>AGRICULTURAL SCIENCES</t>
+          <t>ALL FIELDS</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>394.0</v>
+        <v>10567.0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4637.0</v>
+        <v>115403.0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>11.77</v>
+        <v>10.92</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>6.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>ALL FIELDS</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>10719.0</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>118684.0</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>174.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
